--- a/warehouses.xlsx
+++ b/warehouses.xlsx
@@ -279,10 +279,10 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>

--- a/warehouses.xlsx
+++ b/warehouses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,33 +458,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9732790198307441</v>
+        <v>0.9026819923371647</v>
       </c>
       <c r="D2" t="n">
-        <v>97.32790198307441</v>
+        <v>90.26819923371647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9582307060755336</v>
+        <v>0.8940359407734557</v>
       </c>
       <c r="D3" t="n">
-        <v>95.82307060755336</v>
+        <v>89.40359407734557</v>
       </c>
     </row>
     <row r="4">
@@ -497,74 +497,74 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6288840469874952</v>
+        <v>0.5656557881773399</v>
       </c>
       <c r="D4" t="n">
-        <v>62.88840469874953</v>
+        <v>56.56557881773399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5800492610837438</v>
+        <v>1.527577410274454</v>
       </c>
       <c r="D5" t="n">
-        <v>58.00492610837438</v>
+        <v>50.91924700914846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1.527577410274454</v>
+        <v>1.390065681444992</v>
       </c>
       <c r="D6" t="n">
-        <v>50.91924700914846</v>
+        <v>46.33552271483307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9559758386113065</v>
+        <v>0.4522441160372195</v>
       </c>
       <c r="D7" t="n">
-        <v>47.79879193056533</v>
+        <v>45.22441160372195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.390065681444992</v>
+        <v>0.8677288587848933</v>
       </c>
       <c r="D8" t="n">
-        <v>46.33552271483307</v>
+        <v>43.38644293924466</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9059478197409232</v>
+        <v>0.8494944257194711</v>
       </c>
       <c r="D9" t="n">
-        <v>45.29739098704616</v>
+        <v>42.47472128597355</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6663641863278887</v>
+        <v>0.6455459770114943</v>
       </c>
       <c r="D10" t="n">
-        <v>33.31820931639444</v>
+        <v>32.27729885057472</v>
       </c>
     </row>
     <row r="11">
@@ -641,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7426929392446635</v>
+        <v>0.7426929392446634</v>
       </c>
       <c r="D13" t="n">
-        <v>18.56732348111659</v>
+        <v>18.56732348111658</v>
       </c>
     </row>
     <row r="14">
@@ -746,97 +746,97 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>ГРИВНО_РФЦ</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2967980295566502</v>
+        <v>0.4426929392446634</v>
       </c>
       <c r="D20" t="n">
-        <v>9.893267651888339</v>
+        <v>8.853858784893267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>ВОЛГОГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6425492610837439</v>
+        <v>0.334348803042088</v>
       </c>
       <c r="D21" t="n">
-        <v>9.179275158339198</v>
+        <v>8.358720076052201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ГРИВНО_РФЦ</t>
+          <t>КАЛИНИНГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4426929392446634</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>8.853858784893267</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ВОЛГОГРАД_МРФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>0.334348803042088</v>
+        <v>0.2412424740010947</v>
       </c>
       <c r="D23" t="n">
-        <v>8.358720076052201</v>
+        <v>8.041415800036491</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>КАЛИНИНГРАД_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.519594475721323</v>
       </c>
       <c r="D24" t="n">
-        <v>8.333333333333332</v>
+        <v>7.422778224590329</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.508525392915787</v>
+        <v>0.5116995073891626</v>
       </c>
       <c r="D25" t="n">
-        <v>7.264648470225529</v>
+        <v>7.309992962702323</v>
       </c>
     </row>
     <row r="26">
@@ -897,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5175492610837439</v>
+        <v>0.5175492610837438</v>
       </c>
       <c r="D29" t="n">
         <v>3.981148162182645</v>
@@ -977,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2332624272279445</v>
+        <v>0.2554905582922825</v>
       </c>
       <c r="D34" t="n">
-        <v>1.794326363291881</v>
+        <v>1.965311986863712</v>
       </c>
     </row>
     <row r="35">
@@ -993,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1425492610837438</v>
       </c>
       <c r="D35" t="n">
-        <v>0.438731527093596</v>
+        <v>1.781865763546798</v>
       </c>
     </row>
     <row r="36">

--- a/warehouses.xlsx
+++ b/warehouses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,31 @@
           <t>Рейтинг склада</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Суммарный рейтинг</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Доля в рейтинге</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Поставок в месяц</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Рабочих дней между поставками</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Календарных дней между поставками</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -465,58 +490,112 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9732790198307441</v>
+        <v>1.109926254984753</v>
       </c>
       <c r="D2" t="n">
-        <v>97.32790198307441</v>
+        <v>110.9926254984753</v>
+      </c>
+      <c r="E2" t="n">
+        <v>840.5793447123551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1320430084282606</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9582307060755336</v>
+        <v>1.040024630541872</v>
       </c>
       <c r="D3" t="n">
-        <v>95.82307060755336</v>
+        <v>104.0024630541872</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.1237271219051625</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6288840469874952</v>
+        <v>0.9610153256704981</v>
       </c>
       <c r="D4" t="n">
-        <v>62.88840469874953</v>
+        <v>96.1015325670498</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.11432773499798</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5800492610837438</v>
+        <v>0.6553923293455313</v>
       </c>
       <c r="D5" t="n">
-        <v>58.00492610837438</v>
+        <v>65.53923293455313</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.0779691213528219</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -534,6 +613,19 @@
       <c r="D6" t="n">
         <v>50.91924700914846</v>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.06057637191474523</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -545,10 +637,23 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9559758386113065</v>
+        <v>0.9559758386113064</v>
       </c>
       <c r="D7" t="n">
-        <v>47.79879193056533</v>
+        <v>47.79879193056532</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.05686410477635754</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -566,6 +671,19 @@
       <c r="D8" t="n">
         <v>46.33552271483307</v>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.05512331822844042</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +700,19 @@
       <c r="D9" t="n">
         <v>45.29739098704616</v>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0538882989119211</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -593,10 +724,23 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6663641863278887</v>
+        <v>0.6830459770114943</v>
       </c>
       <c r="D10" t="n">
-        <v>33.31820931639444</v>
+        <v>34.15229885057472</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.04062947664061574</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -614,6 +758,19 @@
       <c r="D11" t="n">
         <v>24.56212370005474</v>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.02922047020850823</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -625,11 +782,24 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.941865605658709</v>
+        <v>0.9418656056587091</v>
       </c>
       <c r="D12" t="n">
         <v>23.54664014146773</v>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.02801239441533666</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,10 +811,23 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7426929392446635</v>
+        <v>0.7426929392446634</v>
       </c>
       <c r="D13" t="n">
-        <v>18.56732348111659</v>
+        <v>18.56732348111658</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.02208872202001382</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -662,6 +845,19 @@
       <c r="D14" t="n">
         <v>18.50369458128079</v>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.02201302553730097</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +874,19 @@
       <c r="D15" t="n">
         <v>16.02268062397373</v>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.01906147316700563</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,85 +903,163 @@
       <c r="D16" t="n">
         <v>15.85259568018189</v>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.01885913064590782</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5389504652435686</v>
+        <v>0.7616995073891625</v>
       </c>
       <c r="D17" t="n">
-        <v>10.77900930487137</v>
+        <v>10.88142153413089</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.01294514503904982</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.315798733286418</v>
+        <v>0.324575807334428</v>
       </c>
       <c r="D18" t="n">
-        <v>10.5266244428806</v>
+        <v>10.81919357781427</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.01287111519676537</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>АДЫГЕЙСК_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4138664086324185</v>
+        <v>0.5389504652435686</v>
       </c>
       <c r="D19" t="n">
-        <v>10.34666021581046</v>
+        <v>10.77900930487137</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.01282330974782628</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2967980295566502</v>
+        <v>0.315798733286418</v>
       </c>
       <c r="D20" t="n">
-        <v>9.893267651888339</v>
+        <v>10.5266244428806</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.01252305866078924</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>АДЫГЕЙСК_РФЦ</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6425492610837439</v>
+        <v>0.4138664086324185</v>
       </c>
       <c r="D21" t="n">
-        <v>9.179275158339198</v>
+        <v>10.34666021581046</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.0123089631941302</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -790,6 +1077,19 @@
       <c r="D22" t="n">
         <v>8.853858784893267</v>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.01053304347839173</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -801,10 +1101,23 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.334348803042088</v>
+        <v>0.3343488030420879</v>
       </c>
       <c r="D23" t="n">
-        <v>8.358720076052201</v>
+        <v>8.358720076052197</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.00994399889627616</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -822,6 +1135,19 @@
       <c r="D24" t="n">
         <v>8.333333333333332</v>
       </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0.009913797413360169</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -833,10 +1159,23 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.508525392915787</v>
+        <v>0.5553087614356087</v>
       </c>
       <c r="D25" t="n">
-        <v>7.264648470225529</v>
+        <v>7.932982306222981</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.009437517536119848</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -854,6 +1193,19 @@
       <c r="D26" t="n">
         <v>5.788910391742904</v>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0.006886810184140154</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1222,19 @@
       <c r="D27" t="n">
         <v>5.126231527093595</v>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.006098450502430301</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1251,19 @@
       <c r="D28" t="n">
         <v>4.605398193760263</v>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.005478838164095292</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -897,11 +1275,24 @@
         <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5175492610837439</v>
+        <v>0.5175492610837438</v>
       </c>
       <c r="D29" t="n">
         <v>3.981148162182645</v>
       </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.004736195562293988</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1309,19 @@
       <c r="D30" t="n">
         <v>3.764709906951286</v>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.004478708560510208</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1338,19 @@
       <c r="D31" t="n">
         <v>3.509852216748768</v>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.004175515659321647</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,37 +1367,76 @@
       <c r="D32" t="n">
         <v>3.319912845774915</v>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0.003949553205962947</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8994018296973962</v>
+        <v>0.3804905582922824</v>
       </c>
       <c r="D33" t="n">
-        <v>2.091632162086968</v>
+        <v>2.926850448402172</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.003481944288559381</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
+          <t>ХАБАРОВСК_2_РФЦ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2332624272279445</v>
+        <v>0.8994018296973962</v>
       </c>
       <c r="D34" t="n">
-        <v>1.794326363291881</v>
+        <v>2.091632162086968</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.002488322102183847</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21</v>
+      </c>
+      <c r="I34" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -998,6 +1454,19 @@
       <c r="D35" t="n">
         <v>0.438731527093596</v>
       </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0.0005219394574152059</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1483,19 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1512,19 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1541,19 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1570,19 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1599,19 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1092,6 +1626,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/warehouses.xlsx
+++ b/warehouses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,31 @@
           <t>Рейтинг склада</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Суммарный рейтинг</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Доля в рейтинге</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Поставок в месяц</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Рабочих дней между поставками</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Календарных дней между поставками</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +495,21 @@
       <c r="D2" t="n">
         <v>90.26819923371647</v>
       </c>
+      <c r="E2" t="n">
+        <v>729.8174410422901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1236859989325547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +526,19 @@
       <c r="D3" t="n">
         <v>89.40359407734557</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.1225013120399859</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +555,19 @@
       <c r="D4" t="n">
         <v>56.56557881773399</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.07750647714988801</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +584,19 @@
       <c r="D5" t="n">
         <v>50.91924700914846</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.06976984125842217</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +613,19 @@
       <c r="D6" t="n">
         <v>46.33552271483307</v>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.06348919621413666</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +642,19 @@
       <c r="D7" t="n">
         <v>45.22441160372195</v>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.06196674546326904</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +671,19 @@
       <c r="D8" t="n">
         <v>43.38644293924466</v>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.05944835036729491</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +700,19 @@
       <c r="D9" t="n">
         <v>42.47472128597355</v>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.05819910418325055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +729,19 @@
       <c r="D10" t="n">
         <v>32.27729885057472</v>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.04422653808393211</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +758,19 @@
       <c r="D11" t="n">
         <v>24.56212370005474</v>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.03365516130304628</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +787,19 @@
       <c r="D12" t="n">
         <v>23.54664014146773</v>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.03226373996740822</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +816,19 @@
       <c r="D13" t="n">
         <v>18.56732348111658</v>
       </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.02544105201788495</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +845,19 @@
       <c r="D14" t="n">
         <v>18.50369458128079</v>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.02535386733818626</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +874,19 @@
       <c r="D15" t="n">
         <v>16.02268062397373</v>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.02195436793219262</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +903,19 @@
       <c r="D16" t="n">
         <v>15.85259568018189</v>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.02172131657684417</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +932,19 @@
       <c r="D17" t="n">
         <v>10.77900930487137</v>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.01476945972882932</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +961,19 @@
       <c r="D18" t="n">
         <v>10.5266244428806</v>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0144236405584484</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +990,19 @@
       <c r="D19" t="n">
         <v>10.34666021581046</v>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.01417705255307938</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +1019,19 @@
       <c r="D20" t="n">
         <v>8.853858784893267</v>
       </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.01213160755962287</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +1048,19 @@
       <c r="D21" t="n">
         <v>8.358720076052201</v>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.01145316569047005</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +1077,19 @@
       <c r="D22" t="n">
         <v>8.333333333333332</v>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.01141838063150706</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +1106,19 @@
       <c r="D23" t="n">
         <v>8.041415800036491</v>
       </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.01101839357052379</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +1135,19 @@
       <c r="D24" t="n">
         <v>7.422778224590329</v>
       </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0.01017073285339615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +1164,19 @@
       <c r="D25" t="n">
         <v>7.309992962702323</v>
       </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.01001619384741278</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1193,19 @@
       <c r="D26" t="n">
         <v>5.788910391742904</v>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0.007931997875352858</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1222,19 @@
       <c r="D27" t="n">
         <v>5.126231527093595</v>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.007023991533790366</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1251,19 @@
       <c r="D28" t="n">
         <v>4.605398193760263</v>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.006310342744321177</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1280,19 @@
       <c r="D29" t="n">
         <v>3.981148162182645</v>
       </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.00545499180794715</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1309,19 @@
       <c r="D30" t="n">
         <v>3.764709906951286</v>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.005158426882173039</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1338,19 @@
       <c r="D31" t="n">
         <v>3.509852216748768</v>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.004809219428541151</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1367,19 @@
       <c r="D32" t="n">
         <v>3.319912845774915</v>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0.004548963424378535</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1396,19 @@
       <c r="D33" t="n">
         <v>2.091632162086968</v>
       </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.002865966260137329</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1425,19 @@
       <c r="D34" t="n">
         <v>1.965311986863712</v>
       </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.002692881639080793</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21</v>
+      </c>
+      <c r="I34" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1454,19 @@
       <c r="D35" t="n">
         <v>1.781865763546798</v>
       </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0.002441522582691397</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1483,19 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1512,19 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1541,19 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1570,19 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1599,19 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1092,6 +1626,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
